--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>630</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PVH-US</t>
+          <t>DHI-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DHI-US</t>
+          <t>CPB-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>483</v>
+        <v>168</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WYNN-US</t>
+          <t>SJM-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KHC-US</t>
+          <t>SLB-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>1984</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CPB-US</t>
+          <t>IAG-CA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>27406</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SJM-US</t>
+          <t>UHS-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>261</v>
+        <v>553</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LW-US</t>
+          <t>BA-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PG-US</t>
+          <t>CLS-CA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>251</v>
+        <v>3764</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SLB-US</t>
+          <t>AGI-CA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>464</v>
+        <v>6994</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HAL-US</t>
+          <t>SPG-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>808</v>
+        <v>421</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>VZ-US</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32887</v>
+        <v>718</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UHS-US</t>
+          <t>AES-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,169 +708,9 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>388</v>
+        <v>1229</v>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>INCY-US</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>293</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CI-US</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>62</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BA-US</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>448</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VRSN-US</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>208</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SVM-CA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>22027</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SPG-US</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>299</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>T-CA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1532</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SPB-CA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>470</v>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
@@ -887,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +759,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>630</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -930,11 +770,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PVH</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -945,11 +785,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483</v>
+        <v>168</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,11 +800,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -975,11 +815,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>1984</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -990,26 +830,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>27406</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261</v>
+        <v>553</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1020,11 +860,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1035,41 +875,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251</v>
+        <v>3764</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>AGI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>464</v>
+        <v>6994</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808</v>
+        <v>421</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1080,150 +920,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32887</v>
+        <v>718</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388</v>
+        <v>1229</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>INCY</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>293</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>62</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>448</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VRSN</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>208</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>22027</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SPG</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>299</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1532</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SPB</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>470</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CA</t>
         </is>
       </c>
     </row>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>630</v>
+        <v>1010</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DHI-US</t>
+          <t>NKE-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CPB-US</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SJM-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>341</v>
+        <v>6429</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SLB-US</t>
+          <t>HAL-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1984</v>
+        <v>1360</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27406</v>
+        <v>25811</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CLS-CA</t>
+          <t>ORCL-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3764</v>
+        <v>461</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGI-CA</t>
+          <t>AVGO-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6994</v>
+        <v>14</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SPG-US</t>
+          <t>FCX-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>421</v>
+        <v>1219</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VZ-US</t>
+          <t>NG-CA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>718</v>
+        <v>1374</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AES-US</t>
+          <t>VTR-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,9 +708,69 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1229</v>
+        <v>1011</v>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VZ-US</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>628</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TMUS-US</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SPB-CA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>646</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
@@ -727,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +819,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>630</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -770,11 +830,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -785,11 +845,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -800,11 +860,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341</v>
+        <v>6429</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -815,11 +875,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1984</v>
+        <v>1360</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -834,7 +894,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27406</v>
+        <v>25811</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -849,7 +909,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -864,7 +924,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -875,41 +935,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3764</v>
+        <v>461</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6994</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>421</v>
+        <v>1219</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -920,30 +980,75 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718</v>
+        <v>1374</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1229</v>
+        <v>1011</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>628</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SPB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>646</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,16 @@
           <t>Type</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>PVH-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,13 +473,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1010</v>
+        <v>877</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,18 +494,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LW-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,18 +515,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>369</v>
+        <v>7361</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>SLB-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,18 +536,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6429</v>
+        <v>554</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAL-US</t>
+          <t>MEG-CA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,18 +557,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1360</v>
+        <v>453</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>MKTX-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,18 +578,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25811</v>
+        <v>89</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UHS-US</t>
+          <t>X-CA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,18 +599,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA-US</t>
+          <t>BEN-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,18 +620,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL-US</t>
+          <t>UHS-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,18 +641,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AVGO-US</t>
+          <t>GE-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,18 +662,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>703</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FCX-US</t>
+          <t>UAL-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,18 +683,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1219</v>
+        <v>399</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NG-CA</t>
+          <t>CLS-CA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,18 +704,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1374</v>
+        <v>3769</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VTR-US</t>
+          <t>SJ-CA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,18 +725,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1011</v>
+        <v>4516</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VZ-US</t>
+          <t>NG-CA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,18 +746,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>628</v>
+        <v>1102</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMUS-US</t>
+          <t>DOW-US</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,32 +767,622 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>853</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>199</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CBRE-US</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>732</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VZ-US</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>669</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BLX-CA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>SPB-CA</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>646</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>581</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>82</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PVH-US</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>877</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>81.87100028991699</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NKE-US</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>122.4075057983398</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>COTY-US</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7361</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>9.034500217437744</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SLB-US</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>554</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>55.36599884033203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MEG-CA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>453</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>49.81799869537353</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>89</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>312.5689895629883</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>X-CA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>447</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>26.93250036239624</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BEN-US</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>465</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>28.56649971008301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UHS-US</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>497</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>140.4860046386719</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>703</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>76.18999710083007</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UAL-US</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>399</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>49.06750144958496</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CLS-CA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3769</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SJ-CA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.289500081539154</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NG-CA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6.46000018119812</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DOW-US</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>853</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>55.74600028991699</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>199</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>41.05900115966796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CBRE-US</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>732</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>81.80450057983398</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VZ-US</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>669</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>39.76700057983398</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BLX-CA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>16.28299942016601</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SPB-CA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>581</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>61.23699913024902</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>82</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>99.69300231933593</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,11 +1424,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>PVH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010</v>
+        <v>877</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -834,7 +1443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -845,11 +1454,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369</v>
+        <v>7361</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -860,11 +1469,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6429</v>
+        <v>554</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -875,56 +1484,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>MEG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1360</v>
+        <v>453</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>MKTX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25811</v>
+        <v>89</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -935,11 +1544,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -950,11 +1559,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>703</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -965,11 +1574,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1219</v>
+        <v>399</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -980,11 +1589,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1374</v>
+        <v>3769</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -995,41 +1604,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011</v>
+        <v>4516</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>628</v>
+        <v>1102</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>853</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1040,13 +1649,88 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>TXG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>199</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CBRE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>732</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>669</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BLX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>SPB</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>646</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B21" t="n">
+        <v>581</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>82</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,16 @@
           <t>Type</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>PVH-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,18 +473,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NKE-US</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,18 +494,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>1276</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LW-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,18 +515,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>369</v>
+        <v>784</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>MEG-CA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,18 +536,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6429</v>
+        <v>1072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAL-US</t>
+          <t>IAG-CA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,18 +557,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1360</v>
+        <v>2291</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>MKTX-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,18 +578,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25811</v>
+        <v>197</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UHS-US</t>
+          <t>BEN-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,18 +599,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>591</v>
+        <v>94</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA-US</t>
+          <t>MS-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,18 +620,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL-US</t>
+          <t>MTD-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,18 +641,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AVGO-US</t>
+          <t>COO-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,18 +662,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FCX-US</t>
+          <t>GE-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,18 +683,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1219</v>
+        <v>565</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NG-CA</t>
+          <t>UAL-US</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,18 +704,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1374</v>
+        <v>382</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VTR-US</t>
+          <t>CLS-CA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,18 +725,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1011</v>
+        <v>3930</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VZ-US</t>
+          <t>SHOP-CA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,18 +746,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>628</v>
+        <v>273</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMUS-US</t>
+          <t>TXG-CA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,18 +767,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SPB-CA</t>
+          <t>SJ-CA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,12 +788,601 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>646</v>
+        <v>29651</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ASR-US</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WELL-US</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>765</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>983</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>208</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>450</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PVH-US</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>981</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>85.58549652099609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TPR-US</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1276</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>41.84274826049805</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>COTY-US</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>784</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>9.029750108718872</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MEG-CA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>50.1457498550415</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IAG-CA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2291</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.560249936580658</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>197</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>316.2264953613281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BEN-US</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>94</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>28.69474992752075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MS-US</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>91.48500289916991</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MTD-US</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1489.433703613281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>COO-US</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>180</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>326.3439895629883</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>565</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>75.33500289916992</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UAL-US</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>382</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>46.78749999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CLS-CA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3930</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>12.50428023338318</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SHOP-CA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>273</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>41.47224884033203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>95</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>45.23899898529053</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SJ-CA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>29651</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2.46999990940094</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ASR-US</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>11</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>274.7115127563476</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>WELL-US</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>765</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>70.26199913024902</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>983</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>18.0832498550415</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>208</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>43.77999172210694</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>450</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>104.423998260498</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,11 +1424,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>PVH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -830,11 +1439,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>1276</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -845,11 +1454,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369</v>
+        <v>784</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -860,56 +1469,56 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY</t>
+          <t>MEG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6429</v>
+        <v>1072</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1360</v>
+        <v>2291</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>MKTX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25811</v>
+        <v>197</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591</v>
+        <v>94</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -920,11 +1529,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -935,11 +1544,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>MTD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -950,11 +1559,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -965,11 +1574,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1219</v>
+        <v>565</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -980,73 +1589,148 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1374</v>
+        <v>382</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011</v>
+        <v>3930</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>628</v>
+        <v>273</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TXG</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>646</v>
+        <v>29651</v>
       </c>
       <c r="C17" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>765</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>983</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>208</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>450</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PVH-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>981</v>
+        <v>263</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TPR-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1276</v>
+        <v>45</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>784</v>
+        <v>3103</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MEG-CA</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1072</v>
+        <v>1168</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2291</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MKTX-US</t>
+          <t>PSK-CA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>197</v>
+        <v>1191</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEN-US</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MS-US</t>
+          <t>MKTX-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MTD-US</t>
+          <t>IDXX-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COO-US</t>
+          <t>GE-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180</v>
+        <v>874</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GE-US</t>
+          <t>URI-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>565</v>
+        <v>27</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UAL-US</t>
+          <t>SHOP-CA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>382</v>
+        <v>999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CLS-CA</t>
+          <t>NVDA-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3930</v>
+        <v>134</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SHOP-CA</t>
+          <t>TXG-CA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>273</v>
+        <v>695</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TXG-CA</t>
+          <t>WPM-CA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>1166</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SJ-CA</t>
+          <t>DOW-US</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29651</v>
+        <v>157</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ASR-US</t>
+          <t>CG-CA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WELL-US</t>
+          <t>MAC-US</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>765</v>
+        <v>6919</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>983</v>
+        <v>703</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>755</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PVH-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>981</v>
+        <v>132</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>85.58549652099609</v>
+        <v>99.41609970092773</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TPR-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1276</v>
+        <v>66</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.84274826049805</v>
+        <v>97.38719970703124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>784</v>
+        <v>33</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.029750108718872</v>
+        <v>95.35829971313476</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MEG-CA</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1072</v>
+        <v>33</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50.1457498550415</v>
+        <v>93.32939971923828</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2291</v>
+        <v>22</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.560249936580658</v>
+        <v>2370.708286132813</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MKTX-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>316.2264953613281</v>
+        <v>2322.326484375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BEN-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.69474992752075</v>
+        <v>2273.944682617187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MS-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>91.48500289916991</v>
+        <v>2225.562880859375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MTD-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>1552</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1489.433703613281</v>
+        <v>9.711799850463867</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COO-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>180</v>
+        <v>776</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>326.3439895629883</v>
+        <v>9.513599853515625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GE-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>565</v>
+        <v>388</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>75.33500289916992</v>
+        <v>9.315399856567382</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UAL-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.78749999999999</v>
+        <v>9.117199859619141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CLS-CA</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3930</v>
+        <v>584</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.50428023338318</v>
+        <v>43.365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SHOP-CA</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1221,13 +1221,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.47224884033203</v>
+        <v>42.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TXG-CA</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.23899898529053</v>
+        <v>41.595</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SJ-CA</t>
+          <t>TPR-US</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29651</v>
+        <v>146</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.46999990940094</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASR-US</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>274.7115127563476</v>
+        <v>96.41239730834961</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WELL-US</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>765</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>70.26199913024902</v>
+        <v>94.44479736328125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>T-CA</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>983</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>18.0832498550415</v>
+        <v>92.47719741821288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCE-CA</t>
+          <t>LW-US</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1359,30 +1359,1479 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.77999172210694</v>
+        <v>90.50959747314454</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>PSK-CA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>596</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>35.8092008972168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PSK-CA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>298</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>35.07840087890625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PSK-CA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>149</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>34.3476008605957</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PSK-CA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>149</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>33.61680084228516</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FTI-US</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>104</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>13.475</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FTI-US</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>52</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FTI-US</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>26</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>12.925</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FTI-US</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>26</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>100</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>362.11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>354.72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>347.33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MKTX-US</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>339.94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IDXX-US</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>86</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>473.3204107666015</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>IDXX-US</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>43</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>463.660810546875</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IDXX-US</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>22</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>454.0012103271484</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IDXX-US</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>444.3416101074219</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>437</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>80.1934017944336</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>218</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>78.55680175781249</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>109</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>76.9202017211914</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GE-US</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>109</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>75.28360168457031</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>URI-US</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>424.9181964111328</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>URI-US</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>416.246396484375</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>URI-US</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>407.5745965576172</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>URI-US</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>398.9027966308594</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SHOP-CA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>500</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>46.8146004486084</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SHOP-CA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>250</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>45.85920043945313</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SHOP-CA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>125</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>44.90380043029785</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SHOP-CA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>125</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>43.94840042114258</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NVDA-US</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>191.0803958129883</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NVDA-US</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>34</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>187.1807958984375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NVDA-US</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>17</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>183.2811959838867</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NVDA-US</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>17</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>179.381596069336</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>348</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>45.0996004486084</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>174</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>44.17920043945313</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>87</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>43.25880043029785</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TXG-CA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>87</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>42.33840042114258</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WPM-CA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>583</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>44.59</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WPM-CA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>292</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>WPM-CA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>146</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>WPM-CA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>146</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DOW-US</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>78</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>57.84450149536133</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DOW-US</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>39</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>56.66400146484375</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DOW-US</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>20</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>55.48350143432617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DOW-US</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>20</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>54.30300140380859</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CG-CA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>105</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>34.51560119628906</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CG-CA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>52</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>33.811201171875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CG-CA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>26</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>33.10680114746093</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CG-CA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>26</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>32.40240112304688</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MAC-US</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3460</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>13.0927996635437</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MAC-US</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>12.82559967041016</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MAC-US</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>865</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>12.55839967727661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MAC-US</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>865</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>12.29119968414307</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>352</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>19.74699962615967</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>176</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>19.34399963378906</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>88</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>18.94099964141846</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>88</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>18.53799964904785</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>244</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>46.05147270202637</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>122</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>45.11164672851562</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>61</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>44.17182075500488</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BCE-CA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>61</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>43.23199478149414</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>H-CA</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>450</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>104.423998260498</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>378</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>107.9470014953613</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>189</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>105.7440014648437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>94</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>103.5410014343262</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>H-CA</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>94</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>101.3380014038086</v>
       </c>
     </row>
   </sheetData>
@@ -1424,11 +2873,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PVH</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981</v>
+        <v>263</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1439,11 +2888,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1276</v>
+        <v>45</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1458,7 +2907,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>784</v>
+        <v>3103</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1469,56 +2918,56 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MEG</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1072</v>
+        <v>1168</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MKTX</t>
+          <t>PSK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197</v>
+        <v>1191</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1529,11 +2978,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MKTX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,11 +2993,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1559,11 +3008,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
+        <v>874</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1574,11 +3023,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>565</v>
+        <v>27</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1589,41 +3038,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382</v>
+        <v>999</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3930</v>
+        <v>134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>TXG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273</v>
+        <v>695</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1634,11 +3083,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TXG</t>
+          <t>WPM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95</v>
+        <v>1166</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1649,41 +3098,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29651</v>
+        <v>157</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>765</v>
+        <v>6919</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1698,7 +3147,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>983</v>
+        <v>703</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1713,7 +3162,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1728,7 +3177,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>450</v>
+        <v>755</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UAA-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1066</v>
+        <v>106</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PHM-US</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1262</v>
+        <v>452</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BKNG-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>1861</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>RCL-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5923</v>
+        <v>392</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TPR-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>418</v>
+        <v>10928</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAP-CA</t>
+          <t>CCO-CA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>313</v>
+        <v>44639</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCO-CA</t>
+          <t>SIVB-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38326</v>
+        <v>81</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X-CA</t>
+          <t>CINF-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEN-US</t>
+          <t>ALGN-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MS-US</t>
+          <t>URI-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STT-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALGN-US</t>
+          <t>META-US</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>URI-US</t>
+          <t>STX-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>104</v>
+        <v>1023</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PNR-US</t>
+          <t>LYB-US</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1398</v>
+        <v>1306</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>454</v>
+        <v>620</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SHOP-CA</t>
+          <t>UDR-US</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1107</v>
+        <v>1061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TXG-CA</t>
+          <t>T-CA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>439</v>
+        <v>2748</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NUE-US</t>
+          <t>H-CA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>787</v>
+        <v>623</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAC-US</t>
+          <t>ATO-US</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7505</v>
+        <v>198</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -863,49 +863,53 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T-CA</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2626</v>
+        <v>106</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>104.433500289917</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>H-CA</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>700</v>
+        <v>452</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>87.15299797058105</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UAA-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -914,7 +918,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1066</v>
+        <v>1861</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -922,13 +926,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.49974956512451</v>
+        <v>46.735249710083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PHM-US</t>
+          <t>RCL-US</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -937,7 +941,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1262</v>
+        <v>392</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -945,13 +949,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>54.66774826049804</v>
+        <v>68.91300086975097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BKNG-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -960,7 +964,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>10928</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -968,13 +972,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2344.338842773438</v>
+        <v>10.28374981880188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>CCO-CA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -983,7 +987,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5923</v>
+        <v>44639</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -991,13 +995,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.599749565124512</v>
+        <v>1.681499981880188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TPR-US</t>
+          <t>SIVB-US</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1006,7 +1010,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1014,13 +1018,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.32249927520752</v>
+        <v>291.6119918823242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAP-CA</t>
+          <t>CINF-US</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1029,7 +1033,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>313</v>
+        <v>737</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1037,13 +1041,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>113.553498840332</v>
+        <v>120.1939968109131</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CCO-CA</t>
+          <t>ALGN-US</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1052,7 +1056,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>38326</v>
+        <v>487</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1060,13 +1064,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.911020016670227</v>
+        <v>307.6764953613281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>X-CA</t>
+          <t>URI-US</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1075,7 +1079,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>839</v>
+        <v>86</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1083,13 +1087,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.59500036239624</v>
+        <v>433.4375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BEN-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1098,7 +1102,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>455</v>
+        <v>627</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1106,13 +1110,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.54724884033203</v>
+        <v>119.8282520294189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MS-US</t>
+          <t>META-US</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1121,7 +1125,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1129,13 +1133,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>93.80299797058105</v>
+        <v>169.5559959411621</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STT-US</t>
+          <t>STX-US</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1144,7 +1148,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>310</v>
+        <v>1023</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1152,13 +1156,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>86.24099884033203</v>
+        <v>67.50225028991699</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ALGN-US</t>
+          <t>LYB-US</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1167,7 +1171,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>413</v>
+        <v>1306</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1175,13 +1179,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>325.8167465209961</v>
+        <v>95.54624710083007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>URI-US</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1190,7 +1194,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>104</v>
+        <v>620</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1198,13 +1202,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>429.8275115966796</v>
+        <v>108.746501159668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PNR-US</t>
+          <t>UDR-US</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1213,7 +1217,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1398</v>
+        <v>1061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1221,13 +1225,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55.42300014495849</v>
+        <v>42.26550159454346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>T-CA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1236,7 +1240,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>454</v>
+        <v>2748</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1244,13 +1248,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>176.7094947814941</v>
+        <v>18.15924978256226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SHOP-CA</t>
+          <t>H-CA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1259,7 +1263,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1107</v>
+        <v>623</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1267,13 +1271,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.0200963973999</v>
+        <v>104.9560031890869</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TXG-CA</t>
+          <t>ATO-US</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1282,7 +1286,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1290,99 +1294,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.62150115966796</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NUE-US</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>787</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>161.528498840332</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MAC-US</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>7505</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>13.0292501449585</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>T-CA</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>2626</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>18.62759981155395</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>H-CA</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>700</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>104.842000579834</v>
+        <v>110.817501449585</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,11 +1336,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UAA</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1066</v>
+        <v>106</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1439,11 +1351,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1262</v>
+        <v>452</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1454,11 +1366,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>1861</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1469,11 +1381,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COTY</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5923</v>
+        <v>392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1484,11 +1396,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418</v>
+        <v>10928</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1499,11 +1411,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>CCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313</v>
+        <v>44639</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1514,41 +1426,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCO</t>
+          <t>SIVB</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38326</v>
+        <v>81</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CINF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1559,11 +1471,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1574,26 +1486,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>TFII</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1604,11 +1516,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104</v>
+        <v>1023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1619,11 +1531,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>LYB</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1398</v>
+        <v>1306</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1634,41 +1546,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>CIGI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>454</v>
+        <v>620</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1107</v>
+        <v>1061</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TXG</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>439</v>
+        <v>2748</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1679,60 +1591,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NUE</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>787</v>
+        <v>623</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7505</v>
+        <v>198</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2626</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>700</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CA</t>
         </is>
       </c>
     </row>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WYNN-US</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>452</v>
+        <v>1016</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>RCL-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1861</v>
+        <v>377</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RCL-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>392</v>
+        <v>4401</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>HSY-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10928</v>
+        <v>337</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CCO-CA</t>
+          <t>CLX-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44639</v>
+        <v>178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SIVB-US</t>
+          <t>PSI-CA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>953</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>URI-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>981</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>IPGP-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>402</v>
+        <v>140</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STX-US</t>
+          <t>ERO-CA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1023</v>
+        <v>6053</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LYB-US</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1306</v>
+        <v>732</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIGI-CA</t>
+          <t>VZ-US</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>620</v>
+        <v>1237</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UDR-US</t>
+          <t>TA-CA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1061</v>
+        <v>1297</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,70 +800,76 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T-CA</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2748</v>
+        <v>323</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>86.86800231933593</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>H-CA</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>623</v>
+        <v>1016</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>46.86350173950195</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATO-US</t>
+          <t>RCL-US</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>198</v>
+        <v>377</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>68.17200202941895</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WYNN-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -872,7 +878,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>106</v>
+        <v>4401</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -880,13 +886,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>104.433500289917</v>
+        <v>10.5355001449585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>HSY-US</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -895,7 +901,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -903,13 +909,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>87.15299797058105</v>
+        <v>228.8549942016601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>CLX-US</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -918,7 +924,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1861</v>
+        <v>178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -926,13 +932,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>46.735249710083</v>
+        <v>146.698998260498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RCL-US</t>
+          <t>PSI-CA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -941,7 +947,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>392</v>
+        <v>953</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -949,13 +955,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>68.91300086975097</v>
+        <v>108.775</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>CINF-US</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -964,7 +970,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10928</v>
+        <v>777</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -972,13 +978,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.28374981880188</v>
+        <v>118.607498550415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CCO-CA</t>
+          <t>ALGN-US</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -987,7 +993,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44639</v>
+        <v>518</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -995,13 +1001,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.681499981880188</v>
+        <v>288.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SIVB-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1010,7 +1016,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>81</v>
+        <v>981</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1018,13 +1024,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>291.6119918823242</v>
+        <v>117.429500579834</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CINF-US</t>
+          <t>IPGP-US</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1033,7 +1039,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>737</v>
+        <v>675</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1041,13 +1047,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120.1939968109131</v>
+        <v>119.794998550415</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ALGN-US</t>
+          <t>META-US</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1056,7 +1062,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>487</v>
+        <v>140</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1064,13 +1070,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>307.6764953613281</v>
+        <v>163.476001739502</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>URI-US</t>
+          <t>ERO-CA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1079,7 +1085,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>86</v>
+        <v>6053</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1087,13 +1093,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>433.4375</v>
+        <v>15.21900043487549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1102,7 +1108,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>627</v>
+        <v>732</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1110,13 +1116,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>119.8282520294189</v>
+        <v>110.1810031890869</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>VZ-US</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1125,7 +1131,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>402</v>
+        <v>1237</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1133,13 +1139,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>169.5559959411621</v>
+        <v>37.24000072479248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STX-US</t>
+          <t>TA-CA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1148,7 +1154,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1023</v>
+        <v>1297</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1156,145 +1162,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>67.50225028991699</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>LYB-US</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1306</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>95.54624710083007</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CIGI-CA</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>620</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>108.746501159668</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UDR-US</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>42.26550159454346</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>T-CA</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2748</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>18.15924978256226</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>H-CA</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>623</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>104.9560031890869</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ATO-US</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>198</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>110.817501449585</v>
+        <v>79.89499855041504</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,11 +1204,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1351,11 +1219,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452</v>
+        <v>1016</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1366,11 +1234,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1861</v>
+        <v>377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1381,11 +1249,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>392</v>
+        <v>4401</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1396,11 +1264,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COTY</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10928</v>
+        <v>337</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1411,30 +1279,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CCO</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44639</v>
+        <v>178</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SIVB</t>
+          <t>PSI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>953</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1313,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1460,7 +1328,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1471,30 +1339,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>TFII</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>981</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>IPGP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1373,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>402</v>
+        <v>140</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1516,105 +1384,60 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ERO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1023</v>
+        <v>6053</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>CIGI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1306</v>
+        <v>732</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIGI</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620</v>
+        <v>1237</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1061</v>
+        <v>1297</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2748</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>623</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ATO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>198</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>US</t>
         </is>
       </c>
     </row>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>323</v>
+        <v>1051</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1016</v>
+        <v>479</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4401</v>
+        <v>3811</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HSY-US</t>
+          <t>CLX-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLX-US</t>
+          <t>HSY-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PSI-CA</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>953</v>
+        <v>7835</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CINF-US</t>
+          <t>RE-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>777</v>
+        <v>280</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ALGN-US</t>
+          <t>BHC-CA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>518</v>
+        <v>14055</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>PH-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>981</v>
+        <v>155</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IPGP-US</t>
+          <t>STN-CA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>675</v>
+        <v>877</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ERO-CA</t>
+          <t>META-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6053</v>
+        <v>133</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CIGI-CA</t>
+          <t>IPGP-US</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>732</v>
+        <v>299</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VZ-US</t>
+          <t>NVDA-US</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1237</v>
+        <v>252</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TA-CA</t>
+          <t>ASR-US</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1297</v>
+        <v>293</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,76 +800,70 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>323</v>
+        <v>717</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>86.86800231933593</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>TMUS-US</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1016</v>
+        <v>330</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>46.86350173950195</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RCL-US</t>
+          <t>TA-CA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>377</v>
+        <v>1422</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>68.17200202941895</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -878,7 +872,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4401</v>
+        <v>1051</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -886,13 +880,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.5355001449585</v>
+        <v>47.94650115966797</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HSY-US</t>
+          <t>OMC-US</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -901,7 +895,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -909,13 +903,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228.8549942016601</v>
+        <v>87.79899826049804</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CLX-US</t>
+          <t>RCL-US</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -924,7 +918,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -932,13 +926,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>146.698998260498</v>
+        <v>68.39999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PSI-CA</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -947,7 +941,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>953</v>
+        <v>3811</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -955,13 +949,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>108.775</v>
+        <v>10.6875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CINF-US</t>
+          <t>CLX-US</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -970,7 +964,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>777</v>
+        <v>177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -978,13 +972,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>118.607498550415</v>
+        <v>147.6252540588379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ALGN-US</t>
+          <t>HSY-US</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -993,7 +987,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>518</v>
+        <v>256</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1001,13 +995,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>288.8</v>
+        <v>228.1235046386719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1016,7 +1010,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>981</v>
+        <v>7835</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1024,13 +1018,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>117.429500579834</v>
+        <v>14.56349992752075</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IPGP-US</t>
+          <t>RE-US</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1039,7 +1033,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>675</v>
+        <v>280</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1047,13 +1041,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119.794998550415</v>
+        <v>366.9517639160156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>BHC-CA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,7 +1056,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>140</v>
+        <v>14055</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1070,13 +1064,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>163.476001739502</v>
+        <v>8.939499855041504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ERO-CA</t>
+          <t>PH-US</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1085,7 +1079,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6053</v>
+        <v>155</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1093,13 +1087,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>15.21900043487549</v>
+        <v>333.6875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CIGI-CA</t>
+          <t>STN-CA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1108,7 +1102,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>732</v>
+        <v>877</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1116,13 +1110,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>110.1810031890869</v>
+        <v>55.15680923461914</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VZ-US</t>
+          <t>TFII-CA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1131,7 +1125,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1237</v>
+        <v>217</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1139,30 +1133,168 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.24000072479248</v>
+        <v>117.153999710083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>META-US</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>133</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>163.2860046386719</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IPGP-US</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>299</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>118.9970020294189</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NVDA-US</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>252</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>224.8174942016601</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASR-US</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>293</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>271.9375</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CIGI-CA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>717</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>111.2640026092529</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TMUS-US</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>330</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>138.386498260498</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>TA-CA</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1297</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>79.89499855041504</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1422</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>80.18000144958496</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,11 +1336,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323</v>
+        <v>1051</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1219,11 +1351,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016</v>
+        <v>479</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1238,7 +1370,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1253,7 +1385,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4401</v>
+        <v>3811</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1264,11 +1396,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1279,11 +1411,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,26 +1426,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953</v>
+        <v>7835</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777</v>
+        <v>280</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1324,101 +1456,101 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>BHC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518</v>
+        <v>14055</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>981</v>
+        <v>155</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IPGP</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>675</v>
+        <v>877</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>TFII</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ERO</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6053</v>
+        <v>133</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CIGI</t>
+          <t>IPGP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>732</v>
+        <v>299</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1237</v>
+        <v>252</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1429,13 +1561,58 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>293</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CIGI</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>717</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>330</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1297</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B20" t="n">
+        <v>1422</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>CA</t>
         </is>

--- a/holding.xlsx
+++ b/holding.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1051</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>479</v>
+        <v>1232</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RCL-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3811</v>
+        <v>10556</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CLX-US</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>1424</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSY-US</t>
+          <t>MPC-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>256</v>
+        <v>486</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FTI-US</t>
+          <t>MFC-CA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7835</v>
+        <v>2283</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RE-US</t>
+          <t>PGR-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHC-CA</t>
+          <t>PRGO-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14055</v>
+        <v>2626</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PH-US</t>
+          <t>ZTS-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STN-CA</t>
+          <t>BHC-CA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>877</v>
+        <v>2194</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>GE-US</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>854</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>STN-CA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>133</v>
+        <v>836</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IPGP-US</t>
+          <t>ROK-US</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NVDA-US</t>
+          <t>CRM-US</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ASR-US</t>
+          <t>IPGP-US</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIGI-CA</t>
+          <t>ANSS-US</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>717</v>
+        <v>258</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMUS-US</t>
+          <t>ASR-US</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TA-CA</t>
+          <t>MOS-US</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1422</v>
+        <v>510</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -863,35 +863,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BWA-US</t>
+          <t>CIGI-CA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1051</v>
+        <v>327</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>47.94650115966797</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMC-US</t>
+          <t>WELL-US</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -899,63 +897,57 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>87.79899826049804</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RCL-US</t>
+          <t>T-CA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>315</v>
+        <v>1299</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>68.39999999999999</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COTY-US</t>
+          <t>TA-CA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3811</v>
+        <v>1880</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.6875</v>
-      </c>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CLX-US</t>
+          <t>BKNG-US</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -964,7 +956,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -972,13 +964,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>147.6252540588379</v>
+        <v>2480.754064941406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HSY-US</t>
+          <t>BWA-US</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -987,7 +979,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>256</v>
+        <v>1232</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -995,13 +987,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228.1235046386719</v>
+        <v>48.39299869537354</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FTI-US</t>
+          <t>WYNN-US</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1010,7 +1002,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7835</v>
+        <v>377</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1018,13 +1010,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>14.56349992752075</v>
+        <v>109.910249710083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RE-US</t>
+          <t>COTY-US</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1033,7 +1025,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>280</v>
+        <v>10556</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1041,13 +1033,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>366.9517639160156</v>
+        <v>11.01525025367737</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BHC-CA</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1056,7 +1048,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14055</v>
+        <v>1424</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1064,13 +1056,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.939499855041504</v>
+        <v>14.43049960136413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PH-US</t>
+          <t>MPC-US</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1079,7 +1071,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>155</v>
+        <v>486</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1087,13 +1079,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>333.6875</v>
+        <v>125.4950057983398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STN-CA</t>
+          <t>MFC-CA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1102,7 +1094,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>877</v>
+        <v>2283</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1110,13 +1102,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.15680923461914</v>
+        <v>19.16624927520752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TFII-CA</t>
+          <t>PGR-US</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1125,7 +1117,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1133,13 +1125,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>117.153999710083</v>
+        <v>138.4055023193359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>META-US</t>
+          <t>PRGO-US</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1148,7 +1140,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>133</v>
+        <v>2626</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1156,13 +1148,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>163.2860046386719</v>
+        <v>36.22350101470947</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IPGP-US</t>
+          <t>ZTS-US</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1171,7 +1163,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1179,13 +1171,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>118.9970020294189</v>
+        <v>162.6542465209961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NVDA-US</t>
+          <t>BHC-CA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1194,7 +1186,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>252</v>
+        <v>2194</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1202,13 +1194,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>224.8174942016601</v>
+        <v>8.50249981880188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASR-US</t>
+          <t>GE-US</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1217,7 +1209,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>293</v>
+        <v>854</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1225,13 +1217,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>271.9375</v>
+        <v>83.11549797058105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CIGI-CA</t>
+          <t>STN-CA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1240,7 +1232,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>717</v>
+        <v>836</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1248,13 +1240,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>111.2640026092529</v>
+        <v>56.14499855041504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TMUS-US</t>
+          <t>ROK-US</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1263,7 +1255,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1271,30 +1263,214 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>138.386498260498</v>
+        <v>291.5169860839844</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>CRM-US</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>177.8067436218262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IPGP-US</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>298</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>119.386498260498</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ANSS-US</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>258</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>295.3645034790039</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ASR-US</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>227</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>288.9805023193359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MOS-US</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>510</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>53.64650115966796</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CIGI-CA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>327</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>108.223998260498</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>WELL-US</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>479</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>71.70124855041503</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>T-CA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>17.91224956512451</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>TA-CA</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1422</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>80.18000144958496</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>80.43175086975097</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,11 +1512,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1051</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1351,11 +1527,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479</v>
+        <v>1232</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1366,11 +1542,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1385,7 +1561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3811</v>
+        <v>10556</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1396,11 +1572,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177</v>
+        <v>1424</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1411,11 +1587,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256</v>
+        <v>486</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1426,26 +1602,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FTI</t>
+          <t>MFC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7835</v>
+        <v>2283</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1456,26 +1632,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHC</t>
+          <t>PRGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14055</v>
+        <v>2626</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1486,11 +1662,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>BHC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>877</v>
+        <v>2194</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1501,41 +1677,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217</v>
+        <v>854</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133</v>
+        <v>836</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IPGP</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1546,11 +1722,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1561,11 +1737,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>IPGP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1576,26 +1752,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIGI</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>717</v>
+        <v>258</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1606,13 +1782,73 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>510</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CIGI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>327</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>479</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1422</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B24" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
